--- a/medicine/Médecine vétérinaire/Parvovirose_porcine/Parvovirose_porcine.xlsx
+++ b/medicine/Médecine vétérinaire/Parvovirose_porcine/Parvovirose_porcine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La parvovirose porcine est une maladie infectieuse hautement contagieuse d’origine
 virale qui affecte les cochons.
@@ -512,7 +524,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La parvovirose porcine est due à un Parvovirus de la famille des Parvoviridae. Ce virus à ADN sans enveloppe est très stable et résistant.
 </t>
@@ -543,7 +557,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La parvovirose est une maladie très largement répandue dans la population porcine, qui
 se retrouve dans de nombreux pays du monde.
@@ -578,7 +594,9 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèces affectées: les porcs, les nullipares étant plus gravement atteintes que les
 multipares.
@@ -613,7 +631,9 @@
           <t>Tableau clinique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Symptômes : il s’agit exclusivement de troubles de la reproduction: mortinatalité,
 fœtus momifiés, baisse de la fertilité, retours en chaleur irréguliers, diminution de la taille
@@ -646,7 +666,9 @@
           <t>Diagnostic expérimental</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Mise en évidence de l’agent pathogène par PCR sur coupe de rein de fœtus momifiés
 Mise en évidence des anticorps par épreuve ELISA</t>
@@ -677,7 +699,9 @@
           <t>Prophylaxie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le virus étant particulièrement résistant dans le milieu extérieur, toute tentative d’éradication reste illusoire. Le principal moyen de contrôle de la maladie repose sur la vaccination des cochettes, truies et verrats à l’aide d’un vaccin à virus inactivé.
 </t>
